--- a/wcsm8seleniumproject/data/ActiTimeTestData.xlsx
+++ b/wcsm8seleniumproject/data/ActiTimeTestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qspiders Wakad\git\wcsm8.1repository\wcsm8seleniumproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5041B48F-B32A-4317-9B67-C6D1FD233432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF14502-249B-4F3B-B2AC-4F3268083DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="createusers" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>USERNAME</t>
   </si>
@@ -80,6 +81,24 @@
   </si>
   <si>
     <t>mana@ger</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>TEST_ENGG1</t>
+  </si>
+  <si>
+    <t>Devloper</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -144,13 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -548,14 +566,64 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A511C2-544B-4381-AFBF-6BCF6A410D9A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>